--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7562" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="355">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:10:05-06:00</t>
+    <t>2022-02-27T12:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>A profile on the Bundle transaction for ITI-65 Provide Document resources with Minimal metadata for MHD.
-- [Minimal Metadata](StructureDefinition-IHE.MHD.Minimal.ProvideBundle.html): `http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle`
+- [Minimal Metadata](StructureDefinition-IHE.MHD.Minimal.ProvideBundle.html): `https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle`
   - shall be a Transaction Bundle
   - all resources shall be compliant with minimal constraints, they may be marked minimal, comprehensive, or unContained
   - shall create a [SubmissionSet type List](StructureDefinition-IHE.MHD.Minimal.SubmissionSet.html) that is either minimal, comprehensive, or unContained
@@ -1005,7 +1005,7 @@
 WorkingListOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.SubmissionSet}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.SubmissionSet}
 </t>
   </si>
   <si>
@@ -1034,7 +1034,7 @@
     <t>any and all DocumentReference that are part of the SubmissionSet. These might be new, replacements, or other associations</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.DocumentReference}
+    <t xml:space="preserve">DocumentReference {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.DocumentReference}
 </t>
   </si>
   <si>
@@ -1091,11 +1091,11 @@
     <t>any Folders being created or updated</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
 </t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovideFolderActions</t>
+    <t>https://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovideFolderActions</t>
   </si>
   <si>
     <t>Patient</t>
@@ -1124,7 +1124,7 @@
     <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovidePatientActions</t>
+    <t>https://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovidePatientActions</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1292,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1390,79 +1390,87 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
@@ -1506,7 +1514,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="48.55078125" customWidth="true" bestFit="true"/>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:38:24-06:00</t>
+    <t>2022-02-28T20:12:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$281</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -439,7 +436,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -452,14 +449,14 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -490,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -771,7 +768,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1262,7 +1259,7 @@
     <t>the superseded DocumentReference resources</t>
   </si>
   <si>
-    <t>any updated DocumentReference that are part of the SubmissionSet if a new new DocumentReference replaces this DocumentReference.</t>
+    <t>any updated DocumentReference that are part of the SubmissionSet if a new DocumentReference replaces this DocumentReference.</t>
   </si>
   <si>
     <t>Bundle.entry:UpdateDocumentRefs.id</t>
@@ -1986,21 +1983,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2202,17 +2184,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2221,26 +2203,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.10546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.6015625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="48.55078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2365,7 +2347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
@@ -2477,7 +2459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2591,7 +2573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2703,7 +2685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2815,7 +2797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2929,7 +2911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -3043,7 +3025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3157,7 +3139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3271,7 +3253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3385,7 +3367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3499,7 +3481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -3613,7 +3595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3727,7 +3709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3841,7 +3823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>173</v>
       </c>
@@ -3955,7 +3937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -4069,7 +4051,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -4183,7 +4165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4297,7 +4279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -4411,7 +4393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>206</v>
       </c>
@@ -4523,7 +4505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>207</v>
       </c>
@@ -4637,7 +4619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>208</v>
       </c>
@@ -4753,7 +4735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4865,7 +4847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4977,7 +4959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -4996,7 +4978,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -5089,7 +5071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5201,7 +5183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>228</v>
       </c>
@@ -5315,7 +5297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -5431,7 +5413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>230</v>
       </c>
@@ -5543,7 +5525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -5657,7 +5639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>237</v>
       </c>
@@ -5676,7 +5658,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5769,7 +5751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>241</v>
       </c>
@@ -5881,7 +5863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>245</v>
       </c>
@@ -5993,7 +5975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>246</v>
       </c>
@@ -6107,7 +6089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>247</v>
       </c>
@@ -6223,7 +6205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>248</v>
       </c>
@@ -6337,7 +6319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>254</v>
       </c>
@@ -6451,7 +6433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>259</v>
       </c>
@@ -6563,7 +6545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>263</v>
       </c>
@@ -6675,7 +6657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>264</v>
       </c>
@@ -6789,7 +6771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>265</v>
       </c>
@@ -6905,7 +6887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>266</v>
       </c>
@@ -7017,7 +6999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>271</v>
       </c>
@@ -7131,7 +7113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>275</v>
       </c>
@@ -7243,7 +7225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>278</v>
       </c>
@@ -7355,7 +7337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>280</v>
       </c>
@@ -7467,7 +7449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>283</v>
       </c>
@@ -7579,7 +7561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>286</v>
       </c>
@@ -7691,7 +7673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>290</v>
       </c>
@@ -7803,7 +7785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>291</v>
       </c>
@@ -7917,7 +7899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>292</v>
       </c>
@@ -8033,7 +8015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>293</v>
       </c>
@@ -8145,7 +8127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>296</v>
       </c>
@@ -8257,7 +8239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>299</v>
       </c>
@@ -8371,7 +8353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>303</v>
       </c>
@@ -8485,7 +8467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>307</v>
       </c>
@@ -8599,7 +8581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>311</v>
       </c>
@@ -8713,7 +8695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>315</v>
       </c>
@@ -8825,7 +8807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>316</v>
       </c>
@@ -8939,7 +8921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>317</v>
       </c>
@@ -9055,7 +9037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>318</v>
       </c>
@@ -9167,7 +9149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>319</v>
       </c>
@@ -9281,7 +9263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>320</v>
       </c>
@@ -9393,7 +9375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>326</v>
       </c>
@@ -9505,7 +9487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>327</v>
       </c>
@@ -9617,7 +9599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>328</v>
       </c>
@@ -9731,7 +9713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>329</v>
       </c>
@@ -9847,7 +9829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>330</v>
       </c>
@@ -9961,7 +9943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>331</v>
       </c>
@@ -10075,7 +10057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>332</v>
       </c>
@@ -10187,7 +10169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>333</v>
       </c>
@@ -10299,7 +10281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>334</v>
       </c>
@@ -10413,7 +10395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>335</v>
       </c>
@@ -10529,7 +10511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>336</v>
       </c>
@@ -10641,7 +10623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>338</v>
       </c>
@@ -10755,7 +10737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>339</v>
       </c>
@@ -10867,7 +10849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>340</v>
       </c>
@@ -10979,7 +10961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>341</v>
       </c>
@@ -11091,7 +11073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>342</v>
       </c>
@@ -11203,7 +11185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>343</v>
       </c>
@@ -11315,7 +11297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>344</v>
       </c>
@@ -11427,7 +11409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>345</v>
       </c>
@@ -11541,7 +11523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>346</v>
       </c>
@@ -11657,7 +11639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>347</v>
       </c>
@@ -11769,7 +11751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>348</v>
       </c>
@@ -11881,7 +11863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>349</v>
       </c>
@@ -11995,7 +11977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>350</v>
       </c>
@@ -12109,7 +12091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>351</v>
       </c>
@@ -12223,7 +12205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>352</v>
       </c>
@@ -12337,7 +12319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>356</v>
       </c>
@@ -12449,7 +12431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>357</v>
       </c>
@@ -12563,7 +12545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>358</v>
       </c>
@@ -12679,7 +12661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>359</v>
       </c>
@@ -12791,7 +12773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>360</v>
       </c>
@@ -12905,7 +12887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>361</v>
       </c>
@@ -13019,7 +13001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>368</v>
       </c>
@@ -13131,7 +13113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>369</v>
       </c>
@@ -13243,7 +13225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>370</v>
       </c>
@@ -13357,7 +13339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>371</v>
       </c>
@@ -13473,7 +13455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>372</v>
       </c>
@@ -13587,7 +13569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>373</v>
       </c>
@@ -13701,7 +13683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>374</v>
       </c>
@@ -13813,7 +13795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>375</v>
       </c>
@@ -13925,7 +13907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>376</v>
       </c>
@@ -14039,7 +14021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>377</v>
       </c>
@@ -14155,7 +14137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>378</v>
       </c>
@@ -14267,7 +14249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>379</v>
       </c>
@@ -14381,7 +14363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>380</v>
       </c>
@@ -14493,7 +14475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>381</v>
       </c>
@@ -14605,7 +14587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>382</v>
       </c>
@@ -14717,7 +14699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>383</v>
       </c>
@@ -14829,7 +14811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>384</v>
       </c>
@@ -14941,7 +14923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>385</v>
       </c>
@@ -15053,7 +15035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>386</v>
       </c>
@@ -15167,7 +15149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>387</v>
       </c>
@@ -15283,7 +15265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>388</v>
       </c>
@@ -15395,7 +15377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>389</v>
       </c>
@@ -15507,7 +15489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>390</v>
       </c>
@@ -15621,7 +15603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>391</v>
       </c>
@@ -15735,7 +15717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>392</v>
       </c>
@@ -15849,7 +15831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>393</v>
       </c>
@@ -15963,7 +15945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>397</v>
       </c>
@@ -16075,7 +16057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>398</v>
       </c>
@@ -16189,7 +16171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>399</v>
       </c>
@@ -16305,7 +16287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>400</v>
       </c>
@@ -16417,7 +16399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>401</v>
       </c>
@@ -16531,7 +16513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>402</v>
       </c>
@@ -16645,7 +16627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>407</v>
       </c>
@@ -16757,7 +16739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>408</v>
       </c>
@@ -16869,7 +16851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>409</v>
       </c>
@@ -16983,7 +16965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>410</v>
       </c>
@@ -17099,7 +17081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>411</v>
       </c>
@@ -17213,7 +17195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>412</v>
       </c>
@@ -17327,7 +17309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>413</v>
       </c>
@@ -17439,7 +17421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>414</v>
       </c>
@@ -17551,7 +17533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>415</v>
       </c>
@@ -17665,7 +17647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>416</v>
       </c>
@@ -17781,7 +17763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>417</v>
       </c>
@@ -17893,7 +17875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>419</v>
       </c>
@@ -18007,7 +17989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>420</v>
       </c>
@@ -18119,7 +18101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>421</v>
       </c>
@@ -18231,7 +18213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>422</v>
       </c>
@@ -18343,7 +18325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>423</v>
       </c>
@@ -18455,7 +18437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>424</v>
       </c>
@@ -18567,7 +18549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>425</v>
       </c>
@@ -18679,7 +18661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>426</v>
       </c>
@@ -18793,7 +18775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>427</v>
       </c>
@@ -18909,7 +18891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>428</v>
       </c>
@@ -19021,7 +19003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>429</v>
       </c>
@@ -19133,7 +19115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>430</v>
       </c>
@@ -19247,7 +19229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>431</v>
       </c>
@@ -19361,7 +19343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>432</v>
       </c>
@@ -19475,7 +19457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>433</v>
       </c>
@@ -19589,7 +19571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>437</v>
       </c>
@@ -19701,7 +19683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>438</v>
       </c>
@@ -19815,7 +19797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>439</v>
       </c>
@@ -19931,7 +19913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>440</v>
       </c>
@@ -20043,7 +20025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>441</v>
       </c>
@@ -20157,7 +20139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>442</v>
       </c>
@@ -20271,7 +20253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>448</v>
       </c>
@@ -20383,7 +20365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>449</v>
       </c>
@@ -20495,7 +20477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>450</v>
       </c>
@@ -20609,7 +20591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>451</v>
       </c>
@@ -20725,7 +20707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>452</v>
       </c>
@@ -20839,7 +20821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>453</v>
       </c>
@@ -20953,7 +20935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>454</v>
       </c>
@@ -21065,7 +21047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>455</v>
       </c>
@@ -21177,7 +21159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>456</v>
       </c>
@@ -21291,7 +21273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>457</v>
       </c>
@@ -21407,7 +21389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>458</v>
       </c>
@@ -21519,7 +21501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>459</v>
       </c>
@@ -21633,7 +21615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>460</v>
       </c>
@@ -21745,7 +21727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>461</v>
       </c>
@@ -21857,7 +21839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>462</v>
       </c>
@@ -21969,7 +21951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>463</v>
       </c>
@@ -22081,7 +22063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>464</v>
       </c>
@@ -22193,7 +22175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>465</v>
       </c>
@@ -22305,7 +22287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>466</v>
       </c>
@@ -22419,7 +22401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>467</v>
       </c>
@@ -22535,7 +22517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>468</v>
       </c>
@@ -22647,7 +22629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>469</v>
       </c>
@@ -22759,7 +22741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>470</v>
       </c>
@@ -22873,7 +22855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>471</v>
       </c>
@@ -22987,7 +22969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>472</v>
       </c>
@@ -23101,7 +23083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>473</v>
       </c>
@@ -23215,7 +23197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>477</v>
       </c>
@@ -23327,7 +23309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>478</v>
       </c>
@@ -23441,7 +23423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>479</v>
       </c>
@@ -23557,7 +23539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>480</v>
       </c>
@@ -23669,7 +23651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>481</v>
       </c>
@@ -23783,7 +23765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>482</v>
       </c>
@@ -23895,7 +23877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>484</v>
       </c>
@@ -24007,7 +23989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>485</v>
       </c>
@@ -24119,7 +24101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>486</v>
       </c>
@@ -24233,7 +24215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>487</v>
       </c>
@@ -24349,7 +24331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>488</v>
       </c>
@@ -24463,7 +24445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
         <v>489</v>
       </c>
@@ -24577,7 +24559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>490</v>
       </c>
@@ -24689,7 +24671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>491</v>
       </c>
@@ -24801,7 +24783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>492</v>
       </c>
@@ -24915,7 +24897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>493</v>
       </c>
@@ -25031,7 +25013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>494</v>
       </c>
@@ -25143,7 +25125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>495</v>
       </c>
@@ -25257,7 +25239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>496</v>
       </c>
@@ -25369,7 +25351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>497</v>
       </c>
@@ -25481,7 +25463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>498</v>
       </c>
@@ -25593,7 +25575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>499</v>
       </c>
@@ -25705,7 +25687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" hidden="true">
+    <row r="208">
       <c r="A208" t="s" s="2">
         <v>500</v>
       </c>
@@ -25817,7 +25799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>501</v>
       </c>
@@ -25929,7 +25911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>502</v>
       </c>
@@ -26043,7 +26025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
         <v>503</v>
       </c>
@@ -26159,7 +26141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>504</v>
       </c>
@@ -26271,7 +26253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
         <v>505</v>
       </c>
@@ -26383,7 +26365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>506</v>
       </c>
@@ -26497,7 +26479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>507</v>
       </c>
@@ -26611,7 +26593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
         <v>508</v>
       </c>
@@ -26725,7 +26707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>509</v>
       </c>
@@ -26839,7 +26821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>512</v>
       </c>
@@ -26951,7 +26933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>513</v>
       </c>
@@ -27065,7 +27047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>514</v>
       </c>
@@ -27181,7 +27163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
         <v>515</v>
       </c>
@@ -27293,7 +27275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
         <v>516</v>
       </c>
@@ -27407,7 +27389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>517</v>
       </c>
@@ -27519,7 +27501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" hidden="true">
+    <row r="224">
       <c r="A224" t="s" s="2">
         <v>519</v>
       </c>
@@ -27631,7 +27613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" hidden="true">
+    <row r="225">
       <c r="A225" t="s" s="2">
         <v>520</v>
       </c>
@@ -27743,7 +27725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>521</v>
       </c>
@@ -27857,7 +27839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
         <v>522</v>
       </c>
@@ -27973,7 +27955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>523</v>
       </c>
@@ -28087,7 +28069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>524</v>
       </c>
@@ -28201,7 +28183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>525</v>
       </c>
@@ -28313,7 +28295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" hidden="true">
+    <row r="231">
       <c r="A231" t="s" s="2">
         <v>526</v>
       </c>
@@ -28425,7 +28407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" hidden="true">
+    <row r="232">
       <c r="A232" t="s" s="2">
         <v>527</v>
       </c>
@@ -28539,7 +28521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" hidden="true">
+    <row r="233">
       <c r="A233" t="s" s="2">
         <v>528</v>
       </c>
@@ -28655,7 +28637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>529</v>
       </c>
@@ -28765,7 +28747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
         <v>531</v>
       </c>
@@ -28879,7 +28861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" hidden="true">
+    <row r="236">
       <c r="A236" t="s" s="2">
         <v>532</v>
       </c>
@@ -28991,7 +28973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>533</v>
       </c>
@@ -29103,7 +29085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
         <v>534</v>
       </c>
@@ -29215,7 +29197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>535</v>
       </c>
@@ -29327,7 +29309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" hidden="true">
+    <row r="240">
       <c r="A240" t="s" s="2">
         <v>536</v>
       </c>
@@ -29439,7 +29421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>537</v>
       </c>
@@ -29551,7 +29533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" hidden="true">
+    <row r="242">
       <c r="A242" t="s" s="2">
         <v>538</v>
       </c>
@@ -29665,7 +29647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>539</v>
       </c>
@@ -29781,7 +29763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
         <v>540</v>
       </c>
@@ -29893,7 +29875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
         <v>541</v>
       </c>
@@ -30005,7 +29987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" hidden="true">
+    <row r="246">
       <c r="A246" t="s" s="2">
         <v>542</v>
       </c>
@@ -30119,7 +30101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
         <v>543</v>
       </c>
@@ -30233,7 +30215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" hidden="true">
+    <row r="248">
       <c r="A248" t="s" s="2">
         <v>544</v>
       </c>
@@ -30347,7 +30329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
         <v>545</v>
       </c>
@@ -30461,7 +30443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" hidden="true">
+    <row r="250">
       <c r="A250" t="s" s="2">
         <v>548</v>
       </c>
@@ -30573,7 +30555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>549</v>
       </c>
@@ -30687,7 +30669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
         <v>550</v>
       </c>
@@ -30803,7 +30785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
         <v>551</v>
       </c>
@@ -30915,7 +30897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" hidden="true">
+    <row r="254">
       <c r="A254" t="s" s="2">
         <v>552</v>
       </c>
@@ -31029,7 +31011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" hidden="true">
+    <row r="255">
       <c r="A255" t="s" s="2">
         <v>553</v>
       </c>
@@ -31141,7 +31123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>560</v>
       </c>
@@ -31253,7 +31235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>561</v>
       </c>
@@ -31365,7 +31347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" hidden="true">
+    <row r="258">
       <c r="A258" t="s" s="2">
         <v>562</v>
       </c>
@@ -31479,7 +31461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" hidden="true">
+    <row r="259">
       <c r="A259" t="s" s="2">
         <v>563</v>
       </c>
@@ -31595,7 +31577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>564</v>
       </c>
@@ -31709,7 +31691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>565</v>
       </c>
@@ -31823,7 +31805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>566</v>
       </c>
@@ -31935,7 +31917,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" hidden="true">
+    <row r="263">
       <c r="A263" t="s" s="2">
         <v>567</v>
       </c>
@@ -32047,7 +32029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" hidden="true">
+    <row r="264">
       <c r="A264" t="s" s="2">
         <v>568</v>
       </c>
@@ -32161,7 +32143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>569</v>
       </c>
@@ -32277,7 +32259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>570</v>
       </c>
@@ -32387,7 +32369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" hidden="true">
+    <row r="267">
       <c r="A267" t="s" s="2">
         <v>572</v>
       </c>
@@ -32501,7 +32483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" hidden="true">
+    <row r="268">
       <c r="A268" t="s" s="2">
         <v>573</v>
       </c>
@@ -32613,7 +32595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" hidden="true">
+    <row r="269">
       <c r="A269" t="s" s="2">
         <v>574</v>
       </c>
@@ -32725,7 +32707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" hidden="true">
+    <row r="270">
       <c r="A270" t="s" s="2">
         <v>575</v>
       </c>
@@ -32837,7 +32819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>576</v>
       </c>
@@ -32949,7 +32931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" hidden="true">
+    <row r="272">
       <c r="A272" t="s" s="2">
         <v>577</v>
       </c>
@@ -33061,7 +33043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" hidden="true">
+    <row r="273">
       <c r="A273" t="s" s="2">
         <v>578</v>
       </c>
@@ -33173,7 +33155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" hidden="true">
+    <row r="274">
       <c r="A274" t="s" s="2">
         <v>579</v>
       </c>
@@ -33287,7 +33269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>580</v>
       </c>
@@ -33403,7 +33385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>581</v>
       </c>
@@ -33515,7 +33497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" hidden="true">
+    <row r="277">
       <c r="A277" t="s" s="2">
         <v>582</v>
       </c>
@@ -33627,7 +33609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" hidden="true">
+    <row r="278">
       <c r="A278" t="s" s="2">
         <v>583</v>
       </c>
@@ -33741,7 +33723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>584</v>
       </c>
@@ -33855,7 +33837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
         <v>585</v>
       </c>
@@ -33969,7 +33951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>586</v>
       </c>
@@ -34086,24 +34068,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN281">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI280">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.Minimal.ProvideBundle.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$281</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -439,7 +436,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -452,14 +449,14 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -490,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -771,7 +768,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1262,7 +1259,7 @@
     <t>the superseded DocumentReference resources</t>
   </si>
   <si>
-    <t>any updated DocumentReference that are part of the SubmissionSet if a new new DocumentReference replaces this DocumentReference.</t>
+    <t>any updated DocumentReference that are part of the SubmissionSet if a new DocumentReference replaces this DocumentReference.</t>
   </si>
   <si>
     <t>Bundle.entry:UpdateDocumentRefs.id</t>
@@ -1986,21 +1983,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2202,17 +2184,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2221,26 +2203,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.10546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.6015625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="48.55078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2365,7 +2347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
@@ -2477,7 +2459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2591,7 +2573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2703,7 +2685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2815,7 +2797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2929,7 +2911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -3043,7 +3025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3157,7 +3139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3271,7 +3253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3385,7 +3367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3499,7 +3481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -3613,7 +3595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3727,7 +3709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3841,7 +3823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>173</v>
       </c>
@@ -3955,7 +3937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -4069,7 +4051,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -4183,7 +4165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4297,7 +4279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -4411,7 +4393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>206</v>
       </c>
@@ -4523,7 +4505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>207</v>
       </c>
@@ -4637,7 +4619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>208</v>
       </c>
@@ -4753,7 +4735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4865,7 +4847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4977,7 +4959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -4996,7 +4978,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -5089,7 +5071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5201,7 +5183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>228</v>
       </c>
@@ -5315,7 +5297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -5431,7 +5413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>230</v>
       </c>
@@ -5543,7 +5525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -5657,7 +5639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>237</v>
       </c>
@@ -5676,7 +5658,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5769,7 +5751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>241</v>
       </c>
@@ -5881,7 +5863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>245</v>
       </c>
@@ -5993,7 +5975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>246</v>
       </c>
@@ -6107,7 +6089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>247</v>
       </c>
@@ -6223,7 +6205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>248</v>
       </c>
@@ -6337,7 +6319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>254</v>
       </c>
@@ -6451,7 +6433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>259</v>
       </c>
@@ -6563,7 +6545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>263</v>
       </c>
@@ -6675,7 +6657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>264</v>
       </c>
@@ -6789,7 +6771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>265</v>
       </c>
@@ -6905,7 +6887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>266</v>
       </c>
@@ -7017,7 +6999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>271</v>
       </c>
@@ -7131,7 +7113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>275</v>
       </c>
@@ -7243,7 +7225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>278</v>
       </c>
@@ -7355,7 +7337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>280</v>
       </c>
@@ -7467,7 +7449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>283</v>
       </c>
@@ -7579,7 +7561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>286</v>
       </c>
@@ -7691,7 +7673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>290</v>
       </c>
@@ -7803,7 +7785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>291</v>
       </c>
@@ -7917,7 +7899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>292</v>
       </c>
@@ -8033,7 +8015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>293</v>
       </c>
@@ -8145,7 +8127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>296</v>
       </c>
@@ -8257,7 +8239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>299</v>
       </c>
@@ -8371,7 +8353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>303</v>
       </c>
@@ -8485,7 +8467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>307</v>
       </c>
@@ -8599,7 +8581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>311</v>
       </c>
@@ -8713,7 +8695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>315</v>
       </c>
@@ -8825,7 +8807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>316</v>
       </c>
@@ -8939,7 +8921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>317</v>
       </c>
@@ -9055,7 +9037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>318</v>
       </c>
@@ -9167,7 +9149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>319</v>
       </c>
@@ -9281,7 +9263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>320</v>
       </c>
@@ -9393,7 +9375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>326</v>
       </c>
@@ -9505,7 +9487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>327</v>
       </c>
@@ -9617,7 +9599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>328</v>
       </c>
@@ -9731,7 +9713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>329</v>
       </c>
@@ -9847,7 +9829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>330</v>
       </c>
@@ -9961,7 +9943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>331</v>
       </c>
@@ -10075,7 +10057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>332</v>
       </c>
@@ -10187,7 +10169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>333</v>
       </c>
@@ -10299,7 +10281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>334</v>
       </c>
@@ -10413,7 +10395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>335</v>
       </c>
@@ -10529,7 +10511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>336</v>
       </c>
@@ -10641,7 +10623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>338</v>
       </c>
@@ -10755,7 +10737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>339</v>
       </c>
@@ -10867,7 +10849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>340</v>
       </c>
@@ -10979,7 +10961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>341</v>
       </c>
@@ -11091,7 +11073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>342</v>
       </c>
@@ -11203,7 +11185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>343</v>
       </c>
@@ -11315,7 +11297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>344</v>
       </c>
@@ -11427,7 +11409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>345</v>
       </c>
@@ -11541,7 +11523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>346</v>
       </c>
@@ -11657,7 +11639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>347</v>
       </c>
@@ -11769,7 +11751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>348</v>
       </c>
@@ -11881,7 +11863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>349</v>
       </c>
@@ -11995,7 +11977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>350</v>
       </c>
@@ -12109,7 +12091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>351</v>
       </c>
@@ -12223,7 +12205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>352</v>
       </c>
@@ -12337,7 +12319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>356</v>
       </c>
@@ -12449,7 +12431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>357</v>
       </c>
@@ -12563,7 +12545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>358</v>
       </c>
@@ -12679,7 +12661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>359</v>
       </c>
@@ -12791,7 +12773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>360</v>
       </c>
@@ -12905,7 +12887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>361</v>
       </c>
@@ -13019,7 +13001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>368</v>
       </c>
@@ -13131,7 +13113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>369</v>
       </c>
@@ -13243,7 +13225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>370</v>
       </c>
@@ -13357,7 +13339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>371</v>
       </c>
@@ -13473,7 +13455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>372</v>
       </c>
@@ -13587,7 +13569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>373</v>
       </c>
@@ -13701,7 +13683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>374</v>
       </c>
@@ -13813,7 +13795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>375</v>
       </c>
@@ -13925,7 +13907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>376</v>
       </c>
@@ -14039,7 +14021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>377</v>
       </c>
@@ -14155,7 +14137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>378</v>
       </c>
@@ -14267,7 +14249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>379</v>
       </c>
@@ -14381,7 +14363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>380</v>
       </c>
@@ -14493,7 +14475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>381</v>
       </c>
@@ -14605,7 +14587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>382</v>
       </c>
@@ -14717,7 +14699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>383</v>
       </c>
@@ -14829,7 +14811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>384</v>
       </c>
@@ -14941,7 +14923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>385</v>
       </c>
@@ -15053,7 +15035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>386</v>
       </c>
@@ -15167,7 +15149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>387</v>
       </c>
@@ -15283,7 +15265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>388</v>
       </c>
@@ -15395,7 +15377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>389</v>
       </c>
@@ -15507,7 +15489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>390</v>
       </c>
@@ -15621,7 +15603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>391</v>
       </c>
@@ -15735,7 +15717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>392</v>
       </c>
@@ -15849,7 +15831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>393</v>
       </c>
@@ -15963,7 +15945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>397</v>
       </c>
@@ -16075,7 +16057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>398</v>
       </c>
@@ -16189,7 +16171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>399</v>
       </c>
@@ -16305,7 +16287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>400</v>
       </c>
@@ -16417,7 +16399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>401</v>
       </c>
@@ -16531,7 +16513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>402</v>
       </c>
@@ -16645,7 +16627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>407</v>
       </c>
@@ -16757,7 +16739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>408</v>
       </c>
@@ -16869,7 +16851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>409</v>
       </c>
@@ -16983,7 +16965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>410</v>
       </c>
@@ -17099,7 +17081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>411</v>
       </c>
@@ -17213,7 +17195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>412</v>
       </c>
@@ -17327,7 +17309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>413</v>
       </c>
@@ -17439,7 +17421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>414</v>
       </c>
@@ -17551,7 +17533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>415</v>
       </c>
@@ -17665,7 +17647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>416</v>
       </c>
@@ -17781,7 +17763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>417</v>
       </c>
@@ -17893,7 +17875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>419</v>
       </c>
@@ -18007,7 +17989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>420</v>
       </c>
@@ -18119,7 +18101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>421</v>
       </c>
@@ -18231,7 +18213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>422</v>
       </c>
@@ -18343,7 +18325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>423</v>
       </c>
@@ -18455,7 +18437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>424</v>
       </c>
@@ -18567,7 +18549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>425</v>
       </c>
@@ -18679,7 +18661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>426</v>
       </c>
@@ -18793,7 +18775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>427</v>
       </c>
@@ -18909,7 +18891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>428</v>
       </c>
@@ -19021,7 +19003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>429</v>
       </c>
@@ -19133,7 +19115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>430</v>
       </c>
@@ -19247,7 +19229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>431</v>
       </c>
@@ -19361,7 +19343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>432</v>
       </c>
@@ -19475,7 +19457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>433</v>
       </c>
@@ -19589,7 +19571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>437</v>
       </c>
@@ -19701,7 +19683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>438</v>
       </c>
@@ -19815,7 +19797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>439</v>
       </c>
@@ -19931,7 +19913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>440</v>
       </c>
@@ -20043,7 +20025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>441</v>
       </c>
@@ -20157,7 +20139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>442</v>
       </c>
@@ -20271,7 +20253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>448</v>
       </c>
@@ -20383,7 +20365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>449</v>
       </c>
@@ -20495,7 +20477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>450</v>
       </c>
@@ -20609,7 +20591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>451</v>
       </c>
@@ -20725,7 +20707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>452</v>
       </c>
@@ -20839,7 +20821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>453</v>
       </c>
@@ -20953,7 +20935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>454</v>
       </c>
@@ -21065,7 +21047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>455</v>
       </c>
@@ -21177,7 +21159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>456</v>
       </c>
@@ -21291,7 +21273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>457</v>
       </c>
@@ -21407,7 +21389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>458</v>
       </c>
@@ -21519,7 +21501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>459</v>
       </c>
@@ -21633,7 +21615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>460</v>
       </c>
@@ -21745,7 +21727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>461</v>
       </c>
@@ -21857,7 +21839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>462</v>
       </c>
@@ -21969,7 +21951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>463</v>
       </c>
@@ -22081,7 +22063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>464</v>
       </c>
@@ -22193,7 +22175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>465</v>
       </c>
@@ -22305,7 +22287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>466</v>
       </c>
@@ -22419,7 +22401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>467</v>
       </c>
@@ -22535,7 +22517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>468</v>
       </c>
@@ -22647,7 +22629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>469</v>
       </c>
@@ -22759,7 +22741,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>470</v>
       </c>
@@ -22873,7 +22855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>471</v>
       </c>
@@ -22987,7 +22969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>472</v>
       </c>
@@ -23101,7 +23083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>473</v>
       </c>
@@ -23215,7 +23197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>477</v>
       </c>
@@ -23327,7 +23309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>478</v>
       </c>
@@ -23441,7 +23423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>479</v>
       </c>
@@ -23557,7 +23539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>480</v>
       </c>
@@ -23669,7 +23651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>481</v>
       </c>
@@ -23783,7 +23765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>482</v>
       </c>
@@ -23895,7 +23877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>484</v>
       </c>
@@ -24007,7 +23989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>485</v>
       </c>
@@ -24119,7 +24101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>486</v>
       </c>
@@ -24233,7 +24215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>487</v>
       </c>
@@ -24349,7 +24331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>488</v>
       </c>
@@ -24463,7 +24445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
         <v>489</v>
       </c>
@@ -24577,7 +24559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>490</v>
       </c>
@@ -24689,7 +24671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>491</v>
       </c>
@@ -24801,7 +24783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>492</v>
       </c>
@@ -24915,7 +24897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>493</v>
       </c>
@@ -25031,7 +25013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>494</v>
       </c>
@@ -25143,7 +25125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>495</v>
       </c>
@@ -25257,7 +25239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>496</v>
       </c>
@@ -25369,7 +25351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>497</v>
       </c>
@@ -25481,7 +25463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>498</v>
       </c>
@@ -25593,7 +25575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>499</v>
       </c>
@@ -25705,7 +25687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" hidden="true">
+    <row r="208">
       <c r="A208" t="s" s="2">
         <v>500</v>
       </c>
@@ -25817,7 +25799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>501</v>
       </c>
@@ -25929,7 +25911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>502</v>
       </c>
@@ -26043,7 +26025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
         <v>503</v>
       </c>
@@ -26159,7 +26141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>504</v>
       </c>
@@ -26271,7 +26253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
         <v>505</v>
       </c>
@@ -26383,7 +26365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>506</v>
       </c>
@@ -26497,7 +26479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>507</v>
       </c>
@@ -26611,7 +26593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
         <v>508</v>
       </c>
@@ -26725,7 +26707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>509</v>
       </c>
@@ -26839,7 +26821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>512</v>
       </c>
@@ -26951,7 +26933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>513</v>
       </c>
@@ -27065,7 +27047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>514</v>
       </c>
@@ -27181,7 +27163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
         <v>515</v>
       </c>
@@ -27293,7 +27275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
         <v>516</v>
       </c>
@@ -27407,7 +27389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>517</v>
       </c>
@@ -27519,7 +27501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" hidden="true">
+    <row r="224">
       <c r="A224" t="s" s="2">
         <v>519</v>
       </c>
@@ -27631,7 +27613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" hidden="true">
+    <row r="225">
       <c r="A225" t="s" s="2">
         <v>520</v>
       </c>
@@ -27743,7 +27725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>521</v>
       </c>
@@ -27857,7 +27839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
         <v>522</v>
       </c>
@@ -27973,7 +27955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>523</v>
       </c>
@@ -28087,7 +28069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>524</v>
       </c>
@@ -28201,7 +28183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>525</v>
       </c>
@@ -28313,7 +28295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" hidden="true">
+    <row r="231">
       <c r="A231" t="s" s="2">
         <v>526</v>
       </c>
@@ -28425,7 +28407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" hidden="true">
+    <row r="232">
       <c r="A232" t="s" s="2">
         <v>527</v>
       </c>
@@ -28539,7 +28521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" hidden="true">
+    <row r="233">
       <c r="A233" t="s" s="2">
         <v>528</v>
       </c>
@@ -28655,7 +28637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>529</v>
       </c>
@@ -28765,7 +28747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
         <v>531</v>
       </c>
@@ -28879,7 +28861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" hidden="true">
+    <row r="236">
       <c r="A236" t="s" s="2">
         <v>532</v>
       </c>
@@ -28991,7 +28973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>533</v>
       </c>
@@ -29103,7 +29085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
         <v>534</v>
       </c>
@@ -29215,7 +29197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>535</v>
       </c>
@@ -29327,7 +29309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" hidden="true">
+    <row r="240">
       <c r="A240" t="s" s="2">
         <v>536</v>
       </c>
@@ -29439,7 +29421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>537</v>
       </c>
@@ -29551,7 +29533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" hidden="true">
+    <row r="242">
       <c r="A242" t="s" s="2">
         <v>538</v>
       </c>
@@ -29665,7 +29647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>539</v>
       </c>
@@ -29781,7 +29763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
         <v>540</v>
       </c>
@@ -29893,7 +29875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
         <v>541</v>
       </c>
@@ -30005,7 +29987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" hidden="true">
+    <row r="246">
       <c r="A246" t="s" s="2">
         <v>542</v>
       </c>
@@ -30119,7 +30101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
         <v>543</v>
       </c>
@@ -30233,7 +30215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" hidden="true">
+    <row r="248">
       <c r="A248" t="s" s="2">
         <v>544</v>
       </c>
@@ -30347,7 +30329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
         <v>545</v>
       </c>
@@ -30461,7 +30443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" hidden="true">
+    <row r="250">
       <c r="A250" t="s" s="2">
         <v>548</v>
       </c>
@@ -30573,7 +30555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>549</v>
       </c>
@@ -30687,7 +30669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
         <v>550</v>
       </c>
@@ -30803,7 +30785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
         <v>551</v>
       </c>
@@ -30915,7 +30897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" hidden="true">
+    <row r="254">
       <c r="A254" t="s" s="2">
         <v>552</v>
       </c>
@@ -31029,7 +31011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" hidden="true">
+    <row r="255">
       <c r="A255" t="s" s="2">
         <v>553</v>
       </c>
@@ -31141,7 +31123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>560</v>
       </c>
@@ -31253,7 +31235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>561</v>
       </c>
@@ -31365,7 +31347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" hidden="true">
+    <row r="258">
       <c r="A258" t="s" s="2">
         <v>562</v>
       </c>
@@ -31479,7 +31461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" hidden="true">
+    <row r="259">
       <c r="A259" t="s" s="2">
         <v>563</v>
       </c>
@@ -31595,7 +31577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>564</v>
       </c>
@@ -31709,7 +31691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>565</v>
       </c>
@@ -31823,7 +31805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>566</v>
       </c>
@@ -31935,7 +31917,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" hidden="true">
+    <row r="263">
       <c r="A263" t="s" s="2">
         <v>567</v>
       </c>
@@ -32047,7 +32029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" hidden="true">
+    <row r="264">
       <c r="A264" t="s" s="2">
         <v>568</v>
       </c>
@@ -32161,7 +32143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>569</v>
       </c>
@@ -32277,7 +32259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>570</v>
       </c>
@@ -32387,7 +32369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" hidden="true">
+    <row r="267">
       <c r="A267" t="s" s="2">
         <v>572</v>
       </c>
@@ -32501,7 +32483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" hidden="true">
+    <row r="268">
       <c r="A268" t="s" s="2">
         <v>573</v>
       </c>
@@ -32613,7 +32595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" hidden="true">
+    <row r="269">
       <c r="A269" t="s" s="2">
         <v>574</v>
       </c>
@@ -32725,7 +32707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" hidden="true">
+    <row r="270">
       <c r="A270" t="s" s="2">
         <v>575</v>
       </c>
@@ -32837,7 +32819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>576</v>
       </c>
@@ -32949,7 +32931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" hidden="true">
+    <row r="272">
       <c r="A272" t="s" s="2">
         <v>577</v>
       </c>
@@ -33061,7 +33043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" hidden="true">
+    <row r="273">
       <c r="A273" t="s" s="2">
         <v>578</v>
       </c>
@@ -33173,7 +33155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" hidden="true">
+    <row r="274">
       <c r="A274" t="s" s="2">
         <v>579</v>
       </c>
@@ -33287,7 +33269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>580</v>
       </c>
@@ -33403,7 +33385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>581</v>
       </c>
@@ -33515,7 +33497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" hidden="true">
+    <row r="277">
       <c r="A277" t="s" s="2">
         <v>582</v>
       </c>
@@ -33627,7 +33609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" hidden="true">
+    <row r="278">
       <c r="A278" t="s" s="2">
         <v>583</v>
       </c>
@@ -33741,7 +33723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>584</v>
       </c>
@@ -33855,7 +33837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
         <v>585</v>
       </c>
@@ -33969,7 +33951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>586</v>
       </c>
@@ -34086,24 +34068,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN281">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI280">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>